--- a/biology/Zoologie/Heliconius_sapho/Heliconius_sapho.xlsx
+++ b/biology/Zoologie/Heliconius_sapho/Heliconius_sapho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius sapho est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,52 +523,52 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius sapho a été décrit par Dru Drury en 1782[1].
-Sous-espèces
-Heliconius sapho sapho (Drury, 1782)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius sapho a été décrit par Dru Drury en 1782.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius sapho sapho (Drury, 1782)
 Heliconius sapho candidus Brown, 1976; présent en Colombie.
 Heliconius sapho chocoensis Brown &amp; Benson, 1975; présent en Équateur.
 Heliconius sapho hewitsoni Hewitson, 1875; présent au Costa Rica et à Panama.
-Heliconius sapho leuce Doubleday, 1847 ; présent au Mexique, au Costa Rica, au Guatemala[1].
-Noms vernaculaires
-Heliconius sapho se nomme Sapho en français, Sapho Longwing en anglais[2],[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Heliconius_sapho</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_sapho</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius sapho ressemble à Heliconius cydno ( Mimétisme Müllerien)[4],[2].
-C'est un grand papillon d'une envergure d'environ 80 mm aux ailes antérieures à apex arrondi et bord interne concave[2].
-Les ailes antérieures sont bleu ardoise métallisées avec une très large bande blanche à bords irréguliers partant du 1/3 du bord costal à l'angle interne et séparant l'apex qui est de couleur noire du reste de l'aile. Les ailes postérieures sont bleu ardoise métallisées avec une fine bordure marginale blanche.
-Le revers est noir avec aux ailes antérieures une très large bande blanche à bords irréguliers séparant l'apex du reste de l'aile et dans la partie basale de petites taches rouge vif, ce qui le différencie de Heliconius cydno[4].
-</t>
+Heliconius sapho leuce Doubleday, 1847 ; présent au Mexique, au Costa Rica, au Guatemala.</t>
         </is>
       </c>
     </row>
@@ -581,78 +593,227 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius sapho se nomme Sapho en français, Sapho Longwing en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius sapho ressemble à Heliconius cydno ( Mimétisme Müllerien),.
+C'est un grand papillon d'une envergure d'environ 80 mm aux ailes antérieures à apex arrondi et bord interne concave.
+Les ailes antérieures sont bleu ardoise métallisées avec une très large bande blanche à bords irréguliers partant du 1/3 du bord costal à l'angle interne et séparant l'apex qui est de couleur noire du reste de l'aile. Les ailes postérieures sont bleu ardoise métallisées avec une fine bordure marginale blanche.
+Le revers est noir avec aux ailes antérieures une très large bande blanche à bords irréguliers séparant l'apex du reste de l'aile et dans la partie basale de petites taches rouge vif, ce qui le différencie de Heliconius cydno.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago peut vivre plusieurs mois[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae (Astrophea)[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago peut vivre plusieurs mois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae (Astrophea).
 Sur les autres projets Wikimedia :
 Heliconius sapho, sur Wikimedia CommonsHeliconius sapho, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_sapho</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_sapho</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius sapho est présent au Mexique, au Costa Rica, au Guatemala, à Panama, en Colombie et en Équateur [1].
-Biotope
-Heliconius sapho réside dans la canopée de la forêt jusqu'à une altitude de 2 000 m[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius sapho est présent au Mexique, au Costa Rica, au Guatemala, à Panama, en Colombie et en Équateur .
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Heliconius_sapho</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_sapho</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius sapho réside dans la canopée de la forêt jusqu'à une altitude de 2 000 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sapho</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
